--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H2">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05473433333333333</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N2">
-        <v>0.164203</v>
+        <v>0.028678</v>
       </c>
       <c r="O2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q2">
-        <v>0.05371315487633334</v>
+        <v>0.007338273216444443</v>
       </c>
       <c r="R2">
-        <v>0.483418393887</v>
+        <v>0.06604445894799998</v>
       </c>
       <c r="S2">
-        <v>0.002400163786721845</v>
+        <v>0.0004077970210446892</v>
       </c>
       <c r="T2">
-        <v>0.002400163786721845</v>
+        <v>0.0004077970210446892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H3">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.503206</v>
       </c>
       <c r="O3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q3">
-        <v>8.342464228552668</v>
+        <v>6.525890700999555</v>
       </c>
       <c r="R3">
-        <v>75.082178056974</v>
+        <v>58.73301630899599</v>
       </c>
       <c r="S3">
-        <v>0.3727816878285249</v>
+        <v>0.3626519085671611</v>
       </c>
       <c r="T3">
-        <v>0.3727816878285249</v>
+        <v>0.362651908567161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H4">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7631296666666666</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N4">
-        <v>2.289389</v>
+        <v>0.574631</v>
       </c>
       <c r="O4">
-        <v>0.08189024365379753</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P4">
-        <v>0.08189024365379755</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q4">
-        <v>0.7488919564756668</v>
+        <v>0.1470395172828889</v>
       </c>
       <c r="R4">
-        <v>6.740027608281001</v>
+        <v>1.323355655546</v>
       </c>
       <c r="S4">
-        <v>0.03346411802171298</v>
+        <v>0.008171169886321598</v>
       </c>
       <c r="T4">
-        <v>0.03346411802171299</v>
+        <v>0.008171169886321598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.405983</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H5">
-        <v>4.217949</v>
+        <v>2.302966</v>
       </c>
       <c r="I5">
-        <v>0.5854724457484095</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J5">
-        <v>0.5854724457484095</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05473433333333333</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N5">
-        <v>0.164203</v>
+        <v>0.173483</v>
       </c>
       <c r="O5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q5">
-        <v>0.07695554218299999</v>
+        <v>0.04439171673088888</v>
       </c>
       <c r="R5">
-        <v>0.692599879647</v>
+        <v>0.3995254505779999</v>
       </c>
       <c r="S5">
-        <v>0.003438746168614377</v>
+        <v>0.002466903222048114</v>
       </c>
       <c r="T5">
-        <v>0.003438746168614377</v>
+        <v>0.002466903222048114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H6">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.501068666666667</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N6">
-        <v>25.503206</v>
+        <v>0.028678</v>
       </c>
       <c r="O6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q6">
-        <v>11.952358027166</v>
+        <v>0.007756481304</v>
       </c>
       <c r="R6">
-        <v>107.571222244494</v>
+        <v>0.069808331736</v>
       </c>
       <c r="S6">
-        <v>0.5340892183448731</v>
+        <v>0.0004310373675474302</v>
       </c>
       <c r="T6">
-        <v>0.5340892183448731</v>
+        <v>0.0004310373675474302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H7">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7631296666666666</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N7">
-        <v>2.289389</v>
+        <v>25.503206</v>
       </c>
       <c r="O7">
-        <v>0.08189024365379753</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P7">
-        <v>0.08189024365379755</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q7">
-        <v>1.072947338129</v>
+        <v>6.897801120408</v>
       </c>
       <c r="R7">
-        <v>9.656526043161</v>
+        <v>62.080210083672</v>
       </c>
       <c r="S7">
-        <v>0.04794448123492201</v>
+        <v>0.3833194357437697</v>
       </c>
       <c r="T7">
-        <v>0.04794448123492202</v>
+        <v>0.3833194357437697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.01412433333333333</v>
+        <v>0.811404</v>
       </c>
       <c r="H8">
-        <v>0.04237299999999999</v>
+        <v>2.434212</v>
       </c>
       <c r="I8">
-        <v>0.005881584614630796</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J8">
-        <v>0.005881584614630796</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05473433333333333</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N8">
-        <v>0.164203</v>
+        <v>0.574631</v>
       </c>
       <c r="O8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q8">
-        <v>0.0007730859687777776</v>
+        <v>0.155419297308</v>
       </c>
       <c r="R8">
-        <v>0.006957773718999999</v>
+        <v>1.398773675772</v>
       </c>
       <c r="S8">
-        <v>3.454522361524451E-05</v>
+        <v>0.008636844743397286</v>
       </c>
       <c r="T8">
-        <v>3.454522361524451E-05</v>
+        <v>0.008636844743397286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.01412433333333333</v>
+        <v>0.811404</v>
       </c>
       <c r="H9">
-        <v>0.04237299999999999</v>
+        <v>2.434212</v>
       </c>
       <c r="I9">
-        <v>0.005881584614630796</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J9">
-        <v>0.005881584614630796</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.501068666666667</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N9">
-        <v>25.503206</v>
+        <v>0.173483</v>
       </c>
       <c r="O9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q9">
-        <v>0.1200719275375555</v>
+        <v>0.046921600044</v>
       </c>
       <c r="R9">
-        <v>1.080647347838</v>
+        <v>0.422294400396</v>
       </c>
       <c r="S9">
-        <v>0.005365394993853008</v>
+        <v>0.002607492002030505</v>
       </c>
       <c r="T9">
-        <v>0.005365394993853008</v>
+        <v>0.002607492002030505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.475155</v>
+      </c>
+      <c r="H10">
+        <v>1.425465</v>
+      </c>
+      <c r="I10">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="J10">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.028678</v>
+      </c>
+      <c r="O10">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="P10">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="Q10">
+        <v>0.00454216503</v>
+      </c>
+      <c r="R10">
+        <v>0.04087948526999999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002524137918681683</v>
+      </c>
+      <c r="T10">
+        <v>0.0002524137918681683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.475155</v>
+      </c>
+      <c r="H11">
+        <v>1.425465</v>
+      </c>
+      <c r="I11">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="J11">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N11">
+        <v>25.503206</v>
+      </c>
+      <c r="O11">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="P11">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="Q11">
+        <v>4.03932528231</v>
+      </c>
+      <c r="R11">
+        <v>36.35392754079</v>
+      </c>
+      <c r="S11">
+        <v>0.2244703581579963</v>
+      </c>
+      <c r="T11">
+        <v>0.2244703581579963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.01412433333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.04237299999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.005881584614630796</v>
-      </c>
-      <c r="J10">
-        <v>0.005881584614630796</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7631296666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.289389</v>
-      </c>
-      <c r="O10">
-        <v>0.08189024365379753</v>
-      </c>
-      <c r="P10">
-        <v>0.08189024365379755</v>
-      </c>
-      <c r="Q10">
-        <v>0.01077869778855555</v>
-      </c>
-      <c r="R10">
-        <v>0.09700828009699998</v>
-      </c>
-      <c r="S10">
-        <v>0.0004816443971625427</v>
-      </c>
-      <c r="T10">
-        <v>0.0004816443971625428</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.475155</v>
+      </c>
+      <c r="H12">
+        <v>1.425465</v>
+      </c>
+      <c r="I12">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="J12">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1915436666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.574631</v>
+      </c>
+      <c r="O12">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="P12">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="Q12">
+        <v>0.091012930935</v>
+      </c>
+      <c r="R12">
+        <v>0.819116378415</v>
+      </c>
+      <c r="S12">
+        <v>0.005057702407245882</v>
+      </c>
+      <c r="T12">
+        <v>0.005057702407245882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.475155</v>
+      </c>
+      <c r="H13">
+        <v>1.425465</v>
+      </c>
+      <c r="I13">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="J13">
+        <v>0.2313074114466796</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.173483</v>
+      </c>
+      <c r="O13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="P13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="Q13">
+        <v>0.027477104955</v>
+      </c>
+      <c r="R13">
+        <v>0.247293944595</v>
+      </c>
+      <c r="S13">
+        <v>0.001526937089569197</v>
+      </c>
+      <c r="T13">
+        <v>0.001526937089569197</v>
       </c>
     </row>
   </sheetData>
